--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Adm-Ramp2.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Adm-Ramp2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,6 +92,9 @@
   </si>
   <si>
     <t>Ramp2</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -446,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.7301752776283</v>
+        <v>12.600084</v>
       </c>
       <c r="H2">
-        <v>11.7301752776283</v>
+        <v>37.800252</v>
       </c>
       <c r="I2">
-        <v>0.3985254423378867</v>
+        <v>0.4109984227877579</v>
       </c>
       <c r="J2">
-        <v>0.3985254423378867</v>
+        <v>0.4109984227877579</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>91.8773516419117</v>
+        <v>92.46980033333334</v>
       </c>
       <c r="N2">
-        <v>91.8773516419117</v>
+        <v>277.409401</v>
       </c>
       <c r="O2">
-        <v>0.8725247242497102</v>
+        <v>0.860541101571051</v>
       </c>
       <c r="P2">
-        <v>0.8725247242497102</v>
+        <v>0.860541101571051</v>
       </c>
       <c r="Q2">
-        <v>1077.737438803915</v>
+        <v>1165.127251663228</v>
       </c>
       <c r="R2">
-        <v>1077.737438803915</v>
+        <v>10486.14526496905</v>
       </c>
       <c r="S2">
-        <v>0.3477233016823583</v>
+        <v>0.3536810354897417</v>
       </c>
       <c r="T2">
-        <v>0.3477233016823583</v>
+        <v>0.3536810354897417</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.7301752776283</v>
+        <v>12.600084</v>
       </c>
       <c r="H3">
-        <v>11.7301752776283</v>
+        <v>37.800252</v>
       </c>
       <c r="I3">
-        <v>0.3985254423378867</v>
+        <v>0.4109984227877579</v>
       </c>
       <c r="J3">
-        <v>0.3985254423378867</v>
+        <v>0.4109984227877579</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>11.3190390433013</v>
+        <v>11.76636633333333</v>
       </c>
       <c r="N3">
-        <v>11.3190390433013</v>
+        <v>35.299099</v>
       </c>
       <c r="O3">
-        <v>0.1074926654233574</v>
+        <v>0.109499986043824</v>
       </c>
       <c r="P3">
-        <v>0.1074926654233574</v>
+        <v>0.109499986043824</v>
       </c>
       <c r="Q3">
-        <v>132.7743119522424</v>
+        <v>148.257204174772</v>
       </c>
       <c r="R3">
-        <v>132.7743119522424</v>
+        <v>1334.314837572948</v>
       </c>
       <c r="S3">
-        <v>0.04283856203592196</v>
+        <v>0.04500432155929317</v>
       </c>
       <c r="T3">
-        <v>0.04283856203592196</v>
+        <v>0.04500432155929317</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,185 +649,185 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.7301752776283</v>
+        <v>12.600084</v>
       </c>
       <c r="H4">
-        <v>11.7301752776283</v>
+        <v>37.800252</v>
       </c>
       <c r="I4">
-        <v>0.3985254423378867</v>
+        <v>0.4109984227877579</v>
       </c>
       <c r="J4">
-        <v>0.3985254423378867</v>
+        <v>0.4109984227877579</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>2.10418027673613</v>
+        <v>0.7466693333333333</v>
       </c>
       <c r="N4">
-        <v>2.10418027673613</v>
+        <v>2.240008</v>
       </c>
       <c r="O4">
-        <v>0.01998261032693247</v>
+        <v>0.00694864321432267</v>
       </c>
       <c r="P4">
-        <v>0.01998261032693247</v>
+        <v>0.006948643214322671</v>
       </c>
       <c r="Q4">
-        <v>24.68240346184323</v>
+        <v>9.408096320224001</v>
       </c>
       <c r="R4">
-        <v>24.68240346184323</v>
+        <v>84.672866882016</v>
       </c>
       <c r="S4">
-        <v>0.007963578619606384</v>
+        <v>0.002855881401601474</v>
       </c>
       <c r="T4">
-        <v>0.007963578619606384</v>
+        <v>0.002855881401601474</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>17.2925204532879</v>
+        <v>12.600084</v>
       </c>
       <c r="H5">
-        <v>17.2925204532879</v>
+        <v>37.800252</v>
       </c>
       <c r="I5">
-        <v>0.587502675763673</v>
+        <v>0.4109984227877579</v>
       </c>
       <c r="J5">
-        <v>0.587502675763673</v>
+        <v>0.4109984227877579</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>91.8773516419117</v>
+        <v>0.3524423333333333</v>
       </c>
       <c r="N5">
-        <v>91.8773516419117</v>
+        <v>1.057327</v>
       </c>
       <c r="O5">
-        <v>0.8725247242497102</v>
+        <v>0.003279893680678884</v>
       </c>
       <c r="P5">
-        <v>0.8725247242497102</v>
+        <v>0.003279893680678884</v>
       </c>
       <c r="Q5">
-        <v>1588.790982461683</v>
+        <v>4.440803005156</v>
       </c>
       <c r="R5">
-        <v>1588.790982461683</v>
+        <v>39.967227046404</v>
       </c>
       <c r="S5">
-        <v>0.5126106101666656</v>
+        <v>0.001348031129670556</v>
       </c>
       <c r="T5">
-        <v>0.5126106101666656</v>
+        <v>0.001348031129670556</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>17.2925204532879</v>
+        <v>12.600084</v>
       </c>
       <c r="H6">
-        <v>17.2925204532879</v>
+        <v>37.800252</v>
       </c>
       <c r="I6">
-        <v>0.587502675763673</v>
+        <v>0.4109984227877579</v>
       </c>
       <c r="J6">
-        <v>0.587502675763673</v>
+        <v>0.4109984227877579</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>11.3190390433013</v>
+        <v>2.120135666666667</v>
       </c>
       <c r="N6">
-        <v>11.3190390433013</v>
+        <v>6.360407</v>
       </c>
       <c r="O6">
-        <v>0.1074926654233574</v>
+        <v>0.01973037549012343</v>
       </c>
       <c r="P6">
-        <v>0.1074926654233574</v>
+        <v>0.01973037549012344</v>
       </c>
       <c r="Q6">
-        <v>195.734714167852</v>
+        <v>26.713887491396</v>
       </c>
       <c r="R6">
-        <v>195.734714167852</v>
+        <v>240.424987422564</v>
       </c>
       <c r="S6">
-        <v>0.06315222856119172</v>
+        <v>0.008109153207450967</v>
       </c>
       <c r="T6">
-        <v>0.06315222856119172</v>
+        <v>0.008109153207450967</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,247 +835,929 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>17.2925204532879</v>
+        <v>17.59249933333333</v>
       </c>
       <c r="H7">
-        <v>17.2925204532879</v>
+        <v>52.77749799999999</v>
       </c>
       <c r="I7">
-        <v>0.587502675763673</v>
+        <v>0.573844545710543</v>
       </c>
       <c r="J7">
-        <v>0.587502675763673</v>
+        <v>0.573844545710543</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.10418027673613</v>
+        <v>92.46980033333334</v>
       </c>
       <c r="N7">
-        <v>2.10418027673613</v>
+        <v>277.409401</v>
       </c>
       <c r="O7">
-        <v>0.01998261032693247</v>
+        <v>0.860541101571051</v>
       </c>
       <c r="P7">
-        <v>0.01998261032693247</v>
+        <v>0.860541101571051</v>
       </c>
       <c r="Q7">
-        <v>36.38658047286452</v>
+        <v>1626.774900717633</v>
       </c>
       <c r="R7">
-        <v>36.38658047286452</v>
+        <v>14640.9741064587</v>
       </c>
       <c r="S7">
-        <v>0.01173983703581563</v>
+        <v>0.49381681749629</v>
       </c>
       <c r="T7">
-        <v>0.01173983703581563</v>
+        <v>0.49381681749629</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.411247579741904</v>
+        <v>17.59249933333333</v>
       </c>
       <c r="H8">
-        <v>0.411247579741904</v>
+        <v>52.77749799999999</v>
       </c>
       <c r="I8">
-        <v>0.01397188189844037</v>
+        <v>0.573844545710543</v>
       </c>
       <c r="J8">
-        <v>0.01397188189844037</v>
+        <v>0.573844545710543</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>91.8773516419117</v>
+        <v>11.76636633333333</v>
       </c>
       <c r="N8">
-        <v>91.8773516419117</v>
+        <v>35.299099</v>
       </c>
       <c r="O8">
-        <v>0.8725247242497102</v>
+        <v>0.109499986043824</v>
       </c>
       <c r="P8">
-        <v>0.8725247242497102</v>
+        <v>0.109499986043824</v>
       </c>
       <c r="Q8">
-        <v>37.78433849583204</v>
+        <v>206.9997918749224</v>
       </c>
       <c r="R8">
-        <v>37.78433849583204</v>
+        <v>1862.998126874302</v>
       </c>
       <c r="S8">
-        <v>0.0121908124006862</v>
+        <v>0.062835969746629</v>
       </c>
       <c r="T8">
-        <v>0.0121908124006862</v>
+        <v>0.062835969746629</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.411247579741904</v>
+        <v>17.59249933333333</v>
       </c>
       <c r="H9">
-        <v>0.411247579741904</v>
+        <v>52.77749799999999</v>
       </c>
       <c r="I9">
-        <v>0.01397188189844037</v>
+        <v>0.573844545710543</v>
       </c>
       <c r="J9">
-        <v>0.01397188189844037</v>
+        <v>0.573844545710543</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>11.3190390433013</v>
+        <v>0.7466693333333333</v>
       </c>
       <c r="N9">
-        <v>11.3190390433013</v>
+        <v>2.240008</v>
       </c>
       <c r="O9">
-        <v>0.1074926654233574</v>
+        <v>0.00694864321432267</v>
       </c>
       <c r="P9">
-        <v>0.1074926654233574</v>
+        <v>0.006948643214322671</v>
       </c>
       <c r="Q9">
-        <v>4.654927411561776</v>
+        <v>13.13577974888711</v>
       </c>
       <c r="R9">
-        <v>4.654927411561776</v>
+        <v>118.222017739984</v>
       </c>
       <c r="S9">
-        <v>0.001501874826243715</v>
+        <v>0.00398744100862764</v>
       </c>
       <c r="T9">
-        <v>0.001501874826243715</v>
+        <v>0.00398744100862764</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>17.59249933333333</v>
+      </c>
+      <c r="H10">
+        <v>52.77749799999999</v>
+      </c>
+      <c r="I10">
+        <v>0.573844545710543</v>
+      </c>
+      <c r="J10">
+        <v>0.573844545710543</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.3524423333333333</v>
+      </c>
+      <c r="N10">
+        <v>1.057327</v>
+      </c>
+      <c r="O10">
+        <v>0.003279893680678884</v>
+      </c>
+      <c r="P10">
+        <v>0.003279893680678884</v>
+      </c>
+      <c r="Q10">
+        <v>6.20034151420511</v>
+      </c>
+      <c r="R10">
+        <v>55.80307362784599</v>
+      </c>
+      <c r="S10">
+        <v>0.001882149099168055</v>
+      </c>
+      <c r="T10">
+        <v>0.001882149099168055</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>17.59249933333333</v>
+      </c>
+      <c r="H11">
+        <v>52.77749799999999</v>
+      </c>
+      <c r="I11">
+        <v>0.573844545710543</v>
+      </c>
+      <c r="J11">
+        <v>0.573844545710543</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>2.120135666666667</v>
+      </c>
+      <c r="N11">
+        <v>6.360407</v>
+      </c>
+      <c r="O11">
+        <v>0.01973037549012343</v>
+      </c>
+      <c r="P11">
+        <v>0.01973037549012344</v>
+      </c>
+      <c r="Q11">
+        <v>37.29848530240955</v>
+      </c>
+      <c r="R11">
+        <v>335.686367721686</v>
+      </c>
+      <c r="S11">
+        <v>0.01132216835982831</v>
+      </c>
+      <c r="T11">
+        <v>0.01132216835982832</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.02822</v>
+      </c>
+      <c r="H12">
+        <v>0.08466</v>
+      </c>
+      <c r="I12">
+        <v>0.0009204998546891057</v>
+      </c>
+      <c r="J12">
+        <v>0.0009204998546891058</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>92.46980033333334</v>
+      </c>
+      <c r="N12">
+        <v>277.409401</v>
+      </c>
+      <c r="O12">
+        <v>0.860541101571051</v>
+      </c>
+      <c r="P12">
+        <v>0.860541101571051</v>
+      </c>
+      <c r="Q12">
+        <v>2.609497765406667</v>
+      </c>
+      <c r="R12">
+        <v>23.48547988866</v>
+      </c>
+      <c r="S12">
+        <v>0.0007921279589501554</v>
+      </c>
+      <c r="T12">
+        <v>0.0007921279589501555</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.02822</v>
+      </c>
+      <c r="H13">
+        <v>0.08466</v>
+      </c>
+      <c r="I13">
+        <v>0.0009204998546891057</v>
+      </c>
+      <c r="J13">
+        <v>0.0009204998546891058</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>11.76636633333333</v>
+      </c>
+      <c r="N13">
+        <v>35.299099</v>
+      </c>
+      <c r="O13">
+        <v>0.109499986043824</v>
+      </c>
+      <c r="P13">
+        <v>0.109499986043824</v>
+      </c>
+      <c r="Q13">
+        <v>0.3320468579266666</v>
+      </c>
+      <c r="R13">
+        <v>2.98842172134</v>
+      </c>
+      <c r="S13">
+        <v>0.0001007947212417991</v>
+      </c>
+      <c r="T13">
+        <v>0.0001007947212417991</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.02822</v>
+      </c>
+      <c r="H14">
+        <v>0.08466</v>
+      </c>
+      <c r="I14">
+        <v>0.0009204998546891057</v>
+      </c>
+      <c r="J14">
+        <v>0.0009204998546891058</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.7466693333333333</v>
+      </c>
+      <c r="N14">
+        <v>2.240008</v>
+      </c>
+      <c r="O14">
+        <v>0.00694864321432267</v>
+      </c>
+      <c r="P14">
+        <v>0.006948643214322671</v>
+      </c>
+      <c r="Q14">
+        <v>0.02107100858666667</v>
+      </c>
+      <c r="R14">
+        <v>0.18963907728</v>
+      </c>
+      <c r="S14">
+        <v>6.396225069070458E-06</v>
+      </c>
+      <c r="T14">
+        <v>6.39622506907046E-06</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.02822</v>
+      </c>
+      <c r="H15">
+        <v>0.08466</v>
+      </c>
+      <c r="I15">
+        <v>0.0009204998546891057</v>
+      </c>
+      <c r="J15">
+        <v>0.0009204998546891058</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.3524423333333333</v>
+      </c>
+      <c r="N15">
+        <v>1.057327</v>
+      </c>
+      <c r="O15">
+        <v>0.003279893680678884</v>
+      </c>
+      <c r="P15">
+        <v>0.003279893680678884</v>
+      </c>
+      <c r="Q15">
+        <v>0.009945922646666666</v>
+      </c>
+      <c r="R15">
+        <v>0.08951330381999999</v>
+      </c>
+      <c r="S15">
+        <v>3.019141656460629E-06</v>
+      </c>
+      <c r="T15">
+        <v>3.019141656460629E-06</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.02822</v>
+      </c>
+      <c r="H16">
+        <v>0.08466</v>
+      </c>
+      <c r="I16">
+        <v>0.0009204998546891057</v>
+      </c>
+      <c r="J16">
+        <v>0.0009204998546891058</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>2.120135666666667</v>
+      </c>
+      <c r="N16">
+        <v>6.360407</v>
+      </c>
+      <c r="O16">
+        <v>0.01973037549012343</v>
+      </c>
+      <c r="P16">
+        <v>0.01973037549012344</v>
+      </c>
+      <c r="Q16">
+        <v>0.05983022851333333</v>
+      </c>
+      <c r="R16">
+        <v>0.53847205662</v>
+      </c>
+      <c r="S16">
+        <v>1.816180777162011E-05</v>
+      </c>
+      <c r="T16">
+        <v>1.816180777162012E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.436453</v>
+      </c>
+      <c r="H17">
+        <v>1.309359</v>
+      </c>
+      <c r="I17">
+        <v>0.01423653164701007</v>
+      </c>
+      <c r="J17">
+        <v>0.01423653164701007</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>92.46980033333334</v>
+      </c>
+      <c r="N17">
+        <v>277.409401</v>
+      </c>
+      <c r="O17">
+        <v>0.860541101571051</v>
+      </c>
+      <c r="P17">
+        <v>0.860541101571051</v>
+      </c>
+      <c r="Q17">
+        <v>40.35872176488434</v>
+      </c>
+      <c r="R17">
+        <v>363.228495883959</v>
+      </c>
+      <c r="S17">
+        <v>0.01225112062606918</v>
+      </c>
+      <c r="T17">
+        <v>0.01225112062606918</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.436453</v>
+      </c>
+      <c r="H18">
+        <v>1.309359</v>
+      </c>
+      <c r="I18">
+        <v>0.01423653164701007</v>
+      </c>
+      <c r="J18">
+        <v>0.01423653164701007</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>11.76636633333333</v>
+      </c>
+      <c r="N18">
+        <v>35.299099</v>
+      </c>
+      <c r="O18">
+        <v>0.109499986043824</v>
+      </c>
+      <c r="P18">
+        <v>0.109499986043824</v>
+      </c>
+      <c r="Q18">
+        <v>5.135465885282333</v>
+      </c>
+      <c r="R18">
+        <v>46.219192967541</v>
+      </c>
+      <c r="S18">
+        <v>0.001558900016660062</v>
+      </c>
+      <c r="T18">
+        <v>0.001558900016660062</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>22</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0.411247579741904</v>
-      </c>
-      <c r="H10">
-        <v>0.411247579741904</v>
-      </c>
-      <c r="I10">
-        <v>0.01397188189844037</v>
-      </c>
-      <c r="J10">
-        <v>0.01397188189844037</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>2.10418027673613</v>
-      </c>
-      <c r="N10">
-        <v>2.10418027673613</v>
-      </c>
-      <c r="O10">
-        <v>0.01998261032693247</v>
-      </c>
-      <c r="P10">
-        <v>0.01998261032693247</v>
-      </c>
-      <c r="Q10">
-        <v>0.8653390461483833</v>
-      </c>
-      <c r="R10">
-        <v>0.8653390461483833</v>
-      </c>
-      <c r="S10">
-        <v>0.0002791946715104554</v>
-      </c>
-      <c r="T10">
-        <v>0.0002791946715104554</v>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.436453</v>
+      </c>
+      <c r="H19">
+        <v>1.309359</v>
+      </c>
+      <c r="I19">
+        <v>0.01423653164701007</v>
+      </c>
+      <c r="J19">
+        <v>0.01423653164701007</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M19">
+        <v>0.7466693333333333</v>
+      </c>
+      <c r="N19">
+        <v>2.240008</v>
+      </c>
+      <c r="O19">
+        <v>0.00694864321432267</v>
+      </c>
+      <c r="P19">
+        <v>0.006948643214322671</v>
+      </c>
+      <c r="Q19">
+        <v>0.3258860705413333</v>
+      </c>
+      <c r="R19">
+        <v>2.932974634872</v>
+      </c>
+      <c r="S19">
+        <v>9.892457902448648E-05</v>
+      </c>
+      <c r="T19">
+        <v>9.892457902448651E-05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.436453</v>
+      </c>
+      <c r="H20">
+        <v>1.309359</v>
+      </c>
+      <c r="I20">
+        <v>0.01423653164701007</v>
+      </c>
+      <c r="J20">
+        <v>0.01423653164701007</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.3524423333333333</v>
+      </c>
+      <c r="N20">
+        <v>1.057327</v>
+      </c>
+      <c r="O20">
+        <v>0.003279893680678884</v>
+      </c>
+      <c r="P20">
+        <v>0.003279893680678884</v>
+      </c>
+      <c r="Q20">
+        <v>0.1538245137103333</v>
+      </c>
+      <c r="R20">
+        <v>1.384420623393</v>
+      </c>
+      <c r="S20">
+        <v>4.669431018381328E-05</v>
+      </c>
+      <c r="T20">
+        <v>4.669431018381329E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.436453</v>
+      </c>
+      <c r="H21">
+        <v>1.309359</v>
+      </c>
+      <c r="I21">
+        <v>0.01423653164701007</v>
+      </c>
+      <c r="J21">
+        <v>0.01423653164701007</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>2.120135666666667</v>
+      </c>
+      <c r="N21">
+        <v>6.360407</v>
+      </c>
+      <c r="O21">
+        <v>0.01973037549012343</v>
+      </c>
+      <c r="P21">
+        <v>0.01973037549012344</v>
+      </c>
+      <c r="Q21">
+        <v>0.9253395721236666</v>
+      </c>
+      <c r="R21">
+        <v>8.328056149112999</v>
+      </c>
+      <c r="S21">
+        <v>0.0002808921150725341</v>
+      </c>
+      <c r="T21">
+        <v>0.0002808921150725342</v>
       </c>
     </row>
   </sheetData>
